--- a/xlsx/郡_intext.xlsx
+++ b/xlsx/郡_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="233">
   <si>
     <t>郡</t>
   </si>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>朝鮮半島</t>
+    <t>朝鲜半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
@@ -53,19 +53,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AD%97%E6%96%87%E5%8C%96%E5%9C%88</t>
   </si>
   <si>
-    <t>漢字文化圈</t>
+    <t>汉字文化圈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E5%9C%8B%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>戰國時代</t>
+    <t>战国时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E8%AF%AD</t>
@@ -143,21 +140,18 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%A3</t>
   </si>
   <si>
-    <t>縣</t>
+    <t>县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2</t>
   </si>
   <si>
-    <t>國防</t>
+    <t>国防</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%BF</t>
   </si>
   <si>
-    <t>县</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%AE%B0</t>
   </si>
   <si>
@@ -185,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E5%9C%8B%E9%9F%93%E5%9C%8B</t>
   </si>
   <si>
-    <t>戰國韓國</t>
+    <t>战国韩国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9C%E9%98%B3%E5%8E%BF</t>
@@ -203,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E6%9D%B1%E5%85%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>山東六國</t>
+    <t>山东六国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%A6%E6%9C%9D%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
@@ -263,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E7%B5%B1%E4%B8%80</t>
   </si>
   <si>
-    <t>中國統一</t>
+    <t>中国统一</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%8B</t>
@@ -287,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%AA%E8%AE%93</t>
   </si>
   <si>
-    <t>禪讓</t>
+    <t>禅让</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E8%82%83%E5%AE%97</t>
@@ -305,19 +299,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%90%86%E5%9C%8B</t>
   </si>
   <si>
-    <t>大理國</t>
+    <t>大理国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E5%A4%A9%E5%9C%8B</t>
   </si>
   <si>
-    <t>太平天國</t>
+    <t>太平天国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%AC%8A</t>
   </si>
   <si>
-    <t>政權</t>
+    <t>政权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%98%E5%9B%BD</t>
@@ -371,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A2%E8%97%A9%E7%BD%AE%E7%B8%A3</t>
   </si>
   <si>
-    <t>廢藩置縣</t>
+    <t>废藩置县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B9%85%E4%BF%9D%E5%88%A9%E9%80%9A</t>
@@ -383,13 +377,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E7%B8%A3%E6%9C%89%E6%9C%8B</t>
   </si>
   <si>
-    <t>山縣有朋</t>
+    <t>山县有朋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%AD%AF%E5%A3%AB</t>
   </si>
   <si>
-    <t>普魯士</t>
+    <t>普鲁士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E4%BA%BA</t>
@@ -401,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第一次世界大戰</t>
+    <t>第一次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%A1%E5%BD%B9%E6%89%80</t>
@@ -413,25 +407,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E6%97%A5%E6%B2%BB%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>台灣日治時期</t>
+    <t>台湾日治时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E6%97%A5%E6%B2%BB%E6%99%82%E6%9C%9F%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>台灣日治時期行政區劃</t>
+    <t>台湾日治时期行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%AC%A1%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>二次大戰</t>
+    <t>二次大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B1%B1%E9%83%A1</t>
@@ -443,7 +437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E5%8E%9F%E9%83%A1</t>
   </si>
   <si>
-    <t>豐原郡</t>
+    <t>丰原郡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BE%E6%96%87%E9%83%A1</t>
@@ -455,49 +449,49 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%B1%E8%93%AE%E9%83%A1</t>
   </si>
   <si>
-    <t>花蓮郡</t>
+    <t>花莲郡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE</t>
   </si>
   <si>
-    <t>朝鮮</t>
+    <t>朝鲜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E4%B8%89%E5%9C%8B%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>朝鮮三國時代</t>
+    <t>朝鲜三国时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8F%A5%E9%BA%97</t>
   </si>
   <si>
-    <t>高句麗</t>
+    <t>高句丽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%BE%85</t>
   </si>
   <si>
-    <t>新羅</t>
+    <t>新罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E6%BF%9F</t>
   </si>
   <si>
-    <t>百濟</t>
+    <t>百济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E6%B0%8F%E9%AB%98%E9%BA%97</t>
   </si>
   <si>
-    <t>王氏高麗</t>
+    <t>王氏高丽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A1%AF%E5%AE%97</t>
   </si>
   <si>
-    <t>顯宗</t>
+    <t>显宗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93_(%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92)</t>
@@ -515,19 +509,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E8%BD%84%E5%B8%82</t>
   </si>
   <si>
-    <t>直轄市</t>
+    <t>直辖市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%88%A5%E5%B8%82</t>
   </si>
   <si>
-    <t>特別市</t>
+    <t>特别市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E7%B4%9A%E5%B8%82</t>
   </si>
   <si>
-    <t>特級市</t>
+    <t>特级市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%91</t>
@@ -545,7 +539,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8E%AE</t>
   </si>
   <si>
-    <t>鎮</t>
+    <t>镇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%A2</t>
@@ -557,15 +551,12 @@
     <t>https://zh.wikipedia.org/wiki/%E9%84%89</t>
   </si>
   <si>
-    <t>鄉</t>
+    <t>乡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E8%BE%96%E5%B8%82</t>
   </si>
   <si>
-    <t>直辖市</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%8A</t>
   </si>
   <si>
@@ -587,13 +578,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%83%A1_(%E8%8B%B1%E6%A0%BC%E8%98%AD)</t>
   </si>
   <si>
-    <t>郡 (英格蘭)</t>
+    <t>郡 (英格兰)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>愛爾蘭共和國</t>
+    <t>爱尔兰共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
@@ -641,43 +632,43 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>美國行政區劃</t>
+    <t>美国行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%A1_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>郡 (美國)</t>
+    <t>郡 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>德國行政區劃</t>
+    <t>德国行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%A1_(%E5%BE%B7%E5%9C%8B)</t>
   </si>
   <si>
-    <t>郡 (德國)</t>
+    <t>郡 (德国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>瑞士行政區劃</t>
+    <t>瑞士行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
@@ -695,15 +686,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E9%A6%AC%E9%81%B7</t>
   </si>
   <si>
-    <t>司馬遷</t>
+    <t>司马迁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%A8%98</t>
   </si>
   <si>
-    <t>史記</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%A1%E6%9C%9B</t>
   </si>
   <si>
@@ -719,7 +707,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>中國行政區劃</t>
+    <t>中国行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%BA%A7%E8%A1%8C%E6%94%BF%E5%8C%BA</t>
@@ -1270,7 +1258,7 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
         <v>7</v>
@@ -1296,10 +1284,10 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -1325,10 +1313,10 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -1354,10 +1342,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -1383,10 +1371,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>2</v>
@@ -1412,10 +1400,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>2</v>
@@ -1441,10 +1429,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>19</v>
@@ -1470,10 +1458,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -1499,10 +1487,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1528,10 +1516,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>39</v>
@@ -1557,10 +1545,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1586,10 +1574,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1615,10 +1603,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1644,10 +1632,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1673,10 +1661,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>34</v>
@@ -1702,10 +1690,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1731,10 +1719,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G23" t="n">
         <v>16</v>
@@ -1760,10 +1748,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1789,10 +1777,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1818,10 +1806,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1847,10 +1835,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>2</v>
@@ -1876,10 +1864,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1905,10 +1893,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1934,10 +1922,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1963,10 +1951,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>2</v>
@@ -1992,10 +1980,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2021,10 +2009,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
@@ -2050,10 +2038,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2079,10 +2067,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2108,10 +2096,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>3</v>
@@ -2137,10 +2125,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>2</v>
@@ -2166,10 +2154,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2195,10 +2183,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2224,10 +2212,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2253,10 +2241,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2282,10 +2270,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>3</v>
@@ -2311,10 +2299,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2340,10 +2328,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -2369,10 +2357,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2398,10 +2386,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2427,10 +2415,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2456,10 +2444,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2485,10 +2473,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2514,10 +2502,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2543,10 +2531,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -2572,10 +2560,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>3</v>
@@ -2601,10 +2589,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2630,10 +2618,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2659,10 +2647,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2688,10 +2676,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2717,10 +2705,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F57" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2746,10 +2734,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2775,10 +2763,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2804,10 +2792,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2833,10 +2821,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2862,10 +2850,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F62" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2891,10 +2879,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2920,10 +2908,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F64" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2949,10 +2937,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>4</v>
@@ -2978,10 +2966,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F66" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>4</v>
@@ -3007,10 +2995,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>4</v>
@@ -3036,10 +3024,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F68" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>14</v>
@@ -3065,10 +3053,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F69" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3094,10 +3082,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F70" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3123,10 +3111,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3152,10 +3140,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F72" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3181,10 +3169,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3210,10 +3198,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>8</v>
@@ -3239,10 +3227,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F75" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3268,10 +3256,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F76" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3297,10 +3285,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3326,10 +3314,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F78" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3355,10 +3343,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F79" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3384,10 +3372,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F80" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3413,10 +3401,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>41</v>
@@ -3442,10 +3430,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>4</v>
@@ -3471,10 +3459,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3500,10 +3488,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3529,10 +3517,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F85" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3558,10 +3546,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F86" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -3587,10 +3575,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F87" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3616,10 +3604,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F88" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3645,10 +3633,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F89" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>10</v>
@@ -3674,10 +3662,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F90" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -3703,10 +3691,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F91" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3732,10 +3720,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F92" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3761,10 +3749,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F93" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3790,10 +3778,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F94" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G94" t="n">
         <v>4</v>
@@ -3819,10 +3807,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F95" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3848,10 +3836,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F96" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G96" t="n">
         <v>3</v>
@@ -3877,10 +3865,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F97" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3906,10 +3894,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F98" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3935,10 +3923,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F99" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G99" t="n">
         <v>3</v>
@@ -3964,10 +3952,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F100" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G100" t="n">
         <v>3</v>
@@ -3993,10 +3981,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F101" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G101" t="n">
         <v>10</v>
@@ -4022,10 +4010,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F102" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G102" t="n">
         <v>16</v>
@@ -4051,10 +4039,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F103" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G103" t="n">
         <v>4</v>
@@ -4080,10 +4068,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F104" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4109,10 +4097,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F105" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -4138,10 +4126,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F106" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4167,10 +4155,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F107" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4196,10 +4184,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F108" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4225,10 +4213,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F109" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4254,10 +4242,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F110" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G110" t="n">
         <v>5</v>
@@ -4283,10 +4271,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F111" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4312,10 +4300,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F112" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4341,10 +4329,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F113" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G113" t="n">
         <v>5</v>
@@ -4370,10 +4358,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F114" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4399,10 +4387,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F115" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G115" t="n">
         <v>5</v>
@@ -4428,10 +4416,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F116" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4457,10 +4445,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F117" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4486,10 +4474,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F118" t="s">
-        <v>228</v>
+        <v>46</v>
       </c>
       <c r="G118" t="n">
         <v>3</v>
@@ -4515,10 +4503,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F119" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4544,10 +4532,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F120" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4573,10 +4561,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F121" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4602,10 +4590,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F122" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
